--- a/Code/Results/Cases/Case_1_215/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_215/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2641166960600572</v>
+        <v>0.08750562165990061</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1261010497255199</v>
+        <v>0.1735998771528813</v>
       </c>
       <c r="E2">
-        <v>0.08697578199599576</v>
+        <v>0.1545093483460214</v>
       </c>
       <c r="F2">
-        <v>0.7660838652829653</v>
+        <v>1.492444062395208</v>
       </c>
       <c r="G2">
-        <v>0.0008092560153631911</v>
+        <v>0.002468405472996795</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.266144114561119</v>
+        <v>0.5915225028457844</v>
       </c>
       <c r="J2">
-        <v>0.08564230020966335</v>
+        <v>0.1779213817055343</v>
       </c>
       <c r="K2">
-        <v>1.915679623772405</v>
+        <v>0.6615644409347112</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5010669898020694</v>
+        <v>0.2844807193773704</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.79071077024139</v>
+        <v>3.648149885222466</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2304526325371654</v>
+        <v>0.07660246508839919</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1139059914290073</v>
+        <v>0.1710091665664635</v>
       </c>
       <c r="E3">
-        <v>0.08151804136970142</v>
+        <v>0.1540234438458796</v>
       </c>
       <c r="F3">
-        <v>0.7402779752535338</v>
+        <v>1.497720545593317</v>
       </c>
       <c r="G3">
-        <v>0.0008133671449745972</v>
+        <v>0.002471128877247946</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2844123256604405</v>
+        <v>0.6005887154299057</v>
       </c>
       <c r="J3">
-        <v>0.0831086002984307</v>
+        <v>0.1785819278493221</v>
       </c>
       <c r="K3">
-        <v>1.669461924977014</v>
+        <v>0.5857526274613178</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4362509312230927</v>
+        <v>0.2662373191513439</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.754106767375788</v>
+        <v>3.669841123677429</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2097678409789836</v>
+        <v>0.06989396031504214</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1065045915621496</v>
+        <v>0.1694796270467833</v>
       </c>
       <c r="E4">
-        <v>0.07827624032265135</v>
+        <v>0.1537931766480831</v>
       </c>
       <c r="F4">
-        <v>0.7259820837526121</v>
+        <v>1.501789723700625</v>
       </c>
       <c r="G4">
-        <v>0.0008159752020914085</v>
+        <v>0.002472890959814052</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2962517524000075</v>
+        <v>0.6064735899519835</v>
       </c>
       <c r="J4">
-        <v>0.081707013512343</v>
+        <v>0.1790758196068722</v>
       </c>
       <c r="K4">
-        <v>1.518389408819644</v>
+        <v>0.5391368886814973</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3966076590277865</v>
+        <v>0.2551044755012057</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.735782214699242</v>
+        <v>3.685296547345203</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2013329193867719</v>
+        <v>0.06715689037180539</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1035087226679607</v>
+        <v>0.1688717832744118</v>
       </c>
       <c r="E5">
-        <v>0.07698129228151629</v>
+        <v>0.1537164904591606</v>
       </c>
       <c r="F5">
-        <v>0.7205273673574979</v>
+        <v>1.503656530966374</v>
       </c>
       <c r="G5">
-        <v>0.0008170594646841234</v>
+        <v>0.002473631696406371</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3012291178998958</v>
+        <v>0.608951727727773</v>
       </c>
       <c r="J5">
-        <v>0.08117289437376485</v>
+        <v>0.1792993007679016</v>
       </c>
       <c r="K5">
-        <v>1.45683209917425</v>
+        <v>0.5201248476128058</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3804847097488562</v>
+        <v>0.2505852932414427</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.729309264815711</v>
+        <v>3.692131925044833</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1999319081983657</v>
+        <v>0.0667022086343394</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1030124432272217</v>
+        <v>0.1687717869932897</v>
       </c>
       <c r="E6">
-        <v>0.0767678056018184</v>
+        <v>0.153704793458779</v>
       </c>
       <c r="F6">
-        <v>0.719643497144169</v>
+        <v>1.503979111634592</v>
       </c>
       <c r="G6">
-        <v>0.0008172408127150925</v>
+        <v>0.00247375606649558</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3020647183409735</v>
+        <v>0.60936805246482</v>
       </c>
       <c r="J6">
-        <v>0.08108639279849328</v>
+        <v>0.1793377517196362</v>
       </c>
       <c r="K6">
-        <v>1.446610334444472</v>
+        <v>0.5169669937786523</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3778092501279815</v>
+        <v>0.2498359539994297</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.728293106632165</v>
+        <v>3.69329937270237</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2096541102459213</v>
+        <v>0.0698570603257167</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1064641080723021</v>
+        <v>0.1694713667719867</v>
       </c>
       <c r="E7">
-        <v>0.07825867222916827</v>
+        <v>0.1537920729529638</v>
       </c>
       <c r="F7">
-        <v>0.7259070413061224</v>
+        <v>1.501814055534595</v>
       </c>
       <c r="G7">
-        <v>0.0008159897374487755</v>
+        <v>0.002472900857655484</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2963182656000063</v>
+        <v>0.6065066870608917</v>
       </c>
       <c r="J7">
-        <v>0.08169966243094606</v>
+        <v>0.1790787435870307</v>
       </c>
       <c r="K7">
-        <v>1.517559227700531</v>
+        <v>0.5388805479607299</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3963900983162745</v>
+        <v>0.2550434568403261</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.735690954966088</v>
+        <v>3.685386556912263</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2525112018625322</v>
+        <v>0.08374921996278317</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1218773467390406</v>
+        <v>0.1726939487032695</v>
       </c>
       <c r="E8">
-        <v>0.08507042874532544</v>
+        <v>0.1543276960869129</v>
       </c>
       <c r="F8">
-        <v>0.7568530370285202</v>
+        <v>1.494091265418888</v>
       </c>
       <c r="G8">
-        <v>0.000810656375777316</v>
+        <v>0.002469325884413756</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2723113806373738</v>
+        <v>0.5945824912421003</v>
       </c>
       <c r="J8">
-        <v>0.08473563477956603</v>
+        <v>0.1781308136606654</v>
       </c>
       <c r="K8">
-        <v>1.830748777991289</v>
+        <v>0.6354390603684408</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4786822469207266</v>
+        <v>0.278176297993582</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.777197877691691</v>
+        <v>3.655185396293575</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3365336337815137</v>
+        <v>0.1108737213141637</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1528599673813176</v>
+        <v>0.1794959217301653</v>
       </c>
       <c r="E9">
-        <v>0.0993610021759217</v>
+        <v>0.1559171271519055</v>
       </c>
       <c r="F9">
-        <v>0.8307161126058702</v>
+        <v>1.485528025431734</v>
       </c>
       <c r="G9">
-        <v>0.0008008442578039196</v>
+        <v>0.002463025624448824</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.230355824813866</v>
+        <v>0.5737237704711289</v>
       </c>
       <c r="J9">
-        <v>0.09199399881679682</v>
+        <v>0.1769723915937931</v>
       </c>
       <c r="K9">
-        <v>2.446785532037779</v>
+        <v>0.8242198151533273</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.6416105944834953</v>
+        <v>0.3240751160357078</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.89387730420674</v>
+        <v>3.612926910411801</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3984043490064266</v>
+        <v>0.1307220213705591</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.176192443480403</v>
+        <v>0.1847843432112768</v>
       </c>
       <c r="E10">
-        <v>0.1105266337838593</v>
+        <v>0.157412350861005</v>
       </c>
       <c r="F10">
-        <v>0.8943313507613908</v>
+        <v>1.483251013175192</v>
       </c>
       <c r="G10">
-        <v>0.0007940022965126097</v>
+        <v>0.002458825503840918</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2029159734244392</v>
+        <v>0.5599373846685278</v>
       </c>
       <c r="J10">
-        <v>0.09824353076049164</v>
+        <v>0.17654816402937</v>
       </c>
       <c r="K10">
-        <v>2.902109912584024</v>
+        <v>0.9625310382385237</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.7627646930841294</v>
+        <v>0.3581141133362138</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.00459464308372</v>
+        <v>3.592240408156187</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4266178125873523</v>
+        <v>0.1397325443067388</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1869564291738754</v>
+        <v>0.1872527532507462</v>
       </c>
       <c r="E11">
-        <v>0.1157741165364428</v>
+        <v>0.1581634478461886</v>
       </c>
       <c r="F11">
-        <v>0.9256151238332677</v>
+        <v>1.483087484751707</v>
       </c>
       <c r="G11">
-        <v>0.0007909629994973336</v>
+        <v>0.002457006927427868</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.191229516830433</v>
+        <v>0.553999549908756</v>
       </c>
       <c r="J11">
-        <v>0.1013145869461169</v>
+        <v>0.1764478434616237</v>
       </c>
       <c r="K11">
-        <v>3.110223396864768</v>
+        <v>1.025361342088274</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.8183172940726635</v>
+        <v>0.3736664675152923</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.061222013752996</v>
+        <v>3.585083462719979</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4373144730855216</v>
+        <v>0.14314174896829</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.191056290612039</v>
+        <v>0.1881964231758246</v>
       </c>
       <c r="E12">
-        <v>0.117787448447892</v>
+        <v>0.1584580405690232</v>
       </c>
       <c r="F12">
-        <v>0.937826814236189</v>
+        <v>1.483151016288417</v>
       </c>
       <c r="G12">
-        <v>0.0007898220548797221</v>
+        <v>0.002456331451461432</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1869241832659045</v>
+        <v>0.5517990342603896</v>
       </c>
       <c r="J12">
-        <v>0.1025129052754323</v>
+        <v>0.1764231748524736</v>
       </c>
       <c r="K12">
-        <v>3.189205919458516</v>
+        <v>1.049139956254862</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.8394274764573098</v>
+        <v>0.3795652711904651</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.0836406295264</v>
+        <v>3.582697645872486</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.435010134376995</v>
+        <v>0.1424076474561673</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1901722177845357</v>
+        <v>0.187992790736061</v>
       </c>
       <c r="E13">
-        <v>0.1173526410412897</v>
+        <v>0.1583941429582083</v>
       </c>
       <c r="F13">
-        <v>0.9351800973695674</v>
+        <v>1.483131753605875</v>
       </c>
       <c r="G13">
-        <v>0.0007900673433165248</v>
+        <v>0.002456476342070912</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1878459805927597</v>
+        <v>0.5522708187279868</v>
       </c>
       <c r="J13">
-        <v>0.1022532096484099</v>
+        <v>0.1764278953072917</v>
       </c>
       <c r="K13">
-        <v>3.17218730729968</v>
+        <v>1.044019441323144</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.8348775708859364</v>
+        <v>0.3782944419571166</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.078767764633284</v>
+        <v>3.583197042998989</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4274975579033082</v>
+        <v>0.1400130806685809</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1872932375293317</v>
+        <v>0.1873302108796935</v>
       </c>
       <c r="E14">
-        <v>0.115939216794807</v>
+        <v>0.1581874805361956</v>
       </c>
       <c r="F14">
-        <v>0.9266122998698307</v>
+        <v>1.483090197081253</v>
       </c>
       <c r="G14">
-        <v>0.0007908689367613243</v>
+        <v>0.0024569510918849</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1908728746467281</v>
+        <v>0.5538175497070501</v>
       </c>
       <c r="J14">
-        <v>0.1014124489234618</v>
+        <v>0.176445547018929</v>
       </c>
       <c r="K14">
-        <v>3.116717641740195</v>
+        <v>1.027317907467591</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.8200525030338142</v>
+        <v>0.3741515776216957</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.063046417530671</v>
+        <v>3.584880677584124</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.422897653079616</v>
+        <v>0.138545957326329</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1855329434629454</v>
+        <v>0.1869255231206637</v>
       </c>
       <c r="E15">
-        <v>0.1150769317849942</v>
+        <v>0.1580622172410848</v>
       </c>
       <c r="F15">
-        <v>0.921412703570212</v>
+        <v>1.483081081228562</v>
       </c>
       <c r="G15">
-        <v>0.0007913612175035435</v>
+        <v>0.002457243604257208</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1927427440644252</v>
+        <v>0.5547712208669209</v>
       </c>
       <c r="J15">
-        <v>0.1009021452530092</v>
+        <v>0.176458093814972</v>
       </c>
       <c r="K15">
-        <v>3.082764613699368</v>
+        <v>1.017085896043454</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.8109816335561959</v>
+        <v>0.3716151775500691</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.053545931075774</v>
+        <v>3.585954203505196</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3965621586146568</v>
+        <v>0.1301327704832289</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1754921943180108</v>
+        <v>0.1846242815370118</v>
       </c>
       <c r="E16">
-        <v>0.110187253804547</v>
+        <v>0.1573646894061156</v>
       </c>
       <c r="F16">
-        <v>0.8923364159301599</v>
+        <v>1.483279254781834</v>
       </c>
       <c r="G16">
-        <v>0.0007942023476612109</v>
+        <v>0.002458946199792991</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2036962005699996</v>
+        <v>0.5603321531009335</v>
       </c>
       <c r="J16">
-        <v>0.09804763606451417</v>
+        <v>0.1765565844686492</v>
       </c>
       <c r="K16">
-        <v>2.888531766172832</v>
+        <v>0.9584230549853316</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.7591439119653032</v>
+        <v>0.3570990706902819</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.001026165950378</v>
+        <v>3.59275350388404</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3804257324806457</v>
+        <v>0.1249666439389046</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1693724460773751</v>
+        <v>0.1832285436870933</v>
       </c>
       <c r="E17">
-        <v>0.1072320768070725</v>
+        <v>0.1569549207197163</v>
       </c>
       <c r="F17">
-        <v>0.8751189321805839</v>
+        <v>1.483624258925929</v>
       </c>
       <c r="G17">
-        <v>0.0007959636453010218</v>
+        <v>0.002460014226705426</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2106235594415464</v>
+        <v>0.563829087227258</v>
       </c>
       <c r="J17">
-        <v>0.0963566863454659</v>
+        <v>0.1766407354695119</v>
       </c>
       <c r="K17">
-        <v>2.769650879266919</v>
+        <v>0.9224118792510296</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.7274627965738603</v>
+        <v>0.3482110782036756</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.970462121036547</v>
+        <v>3.597502044569922</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3711507084273791</v>
+        <v>0.1219934896173527</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.165866498757623</v>
+        <v>0.1824316565665924</v>
       </c>
       <c r="E18">
-        <v>0.1055480368082087</v>
+        <v>0.1567259089077382</v>
       </c>
       <c r="F18">
-        <v>0.8654348082365857</v>
+        <v>1.483904799563675</v>
       </c>
       <c r="G18">
-        <v>0.0007969836167132034</v>
+        <v>0.002460637198391994</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2146825675415966</v>
+        <v>0.5658718350033451</v>
       </c>
       <c r="J18">
-        <v>0.09540540323713032</v>
+        <v>0.1766978590005408</v>
       </c>
       <c r="K18">
-        <v>2.701364243220866</v>
+        <v>0.901690975080669</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.7092813020195479</v>
+        <v>0.3431053431035807</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.953467067233646</v>
+        <v>3.60044536570183</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3680113243969458</v>
+        <v>0.1209865392268341</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1646817796607252</v>
+        <v>0.1821628607026895</v>
       </c>
       <c r="E19">
-        <v>0.1049804863823063</v>
+        <v>0.156649516972017</v>
       </c>
       <c r="F19">
-        <v>0.8621927089179025</v>
+        <v>1.484013886489564</v>
       </c>
       <c r="G19">
-        <v>0.0007973301660587073</v>
+        <v>0.002460849616918455</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2160695211940955</v>
+        <v>0.5665688669153064</v>
       </c>
       <c r="J19">
-        <v>0.0950868990677094</v>
+        <v>0.1767186982021514</v>
       </c>
       <c r="K19">
-        <v>2.678258145178972</v>
+        <v>0.8946738557930587</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.7031320346855381</v>
+        <v>0.3413777375534792</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.947811049499904</v>
+        <v>3.601478339905071</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3821428174314008</v>
+        <v>0.1255167680511988</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1700224423396293</v>
+        <v>0.1833765118403363</v>
       </c>
       <c r="E20">
-        <v>0.1075450212667945</v>
+        <v>0.1569978505306544</v>
       </c>
       <c r="F20">
-        <v>0.8769289091722214</v>
+        <v>1.483579035097634</v>
       </c>
       <c r="G20">
-        <v>0.0007957754398332942</v>
+        <v>0.002459899636422917</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2098783726326947</v>
+        <v>0.5634535822075963</v>
       </c>
       <c r="J20">
-        <v>0.09653446763358886</v>
+        <v>0.176630874777679</v>
       </c>
       <c r="K20">
-        <v>2.78229635540896</v>
+        <v>0.9262461905550765</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.7308310253683388</v>
+        <v>0.3491565595925934</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.973654691009301</v>
+        <v>3.596974601861604</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4297038101285295</v>
+        <v>0.1407165029784352</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.188138200166776</v>
+        <v>0.187524584718048</v>
       </c>
       <c r="E21">
-        <v>0.1163536450677007</v>
+        <v>0.1582479065535374</v>
       </c>
       <c r="F21">
-        <v>0.9291187245893155</v>
+        <v>1.483098998228755</v>
       </c>
       <c r="G21">
-        <v>0.0007906332232740928</v>
+        <v>0.002456811289019769</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1899804973273276</v>
+        <v>0.553361933984251</v>
       </c>
       <c r="J21">
-        <v>0.1016584191982588</v>
+        <v>0.1764400007996443</v>
       </c>
       <c r="K21">
-        <v>3.133005416313097</v>
+        <v>1.032223938300319</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.8244048991430049</v>
+        <v>0.3753681827483391</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.067637072615327</v>
+        <v>3.58437734762947</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4608640455767699</v>
+        <v>0.1506334946015926</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2001176105978999</v>
+        <v>0.1902876440453127</v>
       </c>
       <c r="E22">
-        <v>0.1222644967913809</v>
+        <v>0.1591241475567138</v>
       </c>
       <c r="F22">
-        <v>0.9653710003986191</v>
+        <v>1.483516530587792</v>
       </c>
       <c r="G22">
-        <v>0.0007873303257670973</v>
+        <v>0.002454869667994658</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1776788269794953</v>
+        <v>0.5470463337311076</v>
       </c>
       <c r="J22">
-        <v>0.1052147472769462</v>
+        <v>0.1763928943998323</v>
       </c>
       <c r="K22">
-        <v>3.363248226587928</v>
+        <v>1.101405202334661</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.8859954111155943</v>
+        <v>0.3925540266959544</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.134782145831082</v>
+        <v>3.578035097709886</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4442251921082629</v>
+        <v>0.1453422278120797</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1937104159715659</v>
+        <v>0.1888082096732404</v>
       </c>
       <c r="E23">
-        <v>0.1190949691556398</v>
+        <v>0.1586510686274352</v>
       </c>
       <c r="F23">
-        <v>0.9458165689489988</v>
+        <v>1.483226768140852</v>
       </c>
       <c r="G23">
-        <v>0.0007890880426782337</v>
+        <v>0.002455898941378784</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1841782148984024</v>
+        <v>0.5503914687031619</v>
       </c>
       <c r="J23">
-        <v>0.1032967793751993</v>
+        <v>0.1764109332163599</v>
       </c>
       <c r="K23">
-        <v>3.240257081221785</v>
+        <v>1.064489689043398</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.8530799470626178</v>
+        <v>0.3833766787639803</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.098395826365646</v>
+        <v>3.581246963548011</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3813665172526726</v>
+        <v>0.125268066516071</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1697285406418558</v>
+        <v>0.1833095981730253</v>
       </c>
       <c r="E24">
-        <v>0.1074034927235168</v>
+        <v>0.1569784214975627</v>
       </c>
       <c r="F24">
-        <v>0.876109952745125</v>
+        <v>1.483599224763722</v>
       </c>
       <c r="G24">
-        <v>0.0007958605045345971</v>
+        <v>0.002459951415046644</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2102150341104911</v>
+        <v>0.5636232473743448</v>
       </c>
       <c r="J24">
-        <v>0.09645402791137059</v>
+        <v>0.1766353055593868</v>
       </c>
       <c r="K24">
-        <v>2.776579152557701</v>
+        <v>0.9245127531475532</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.7293081489926152</v>
+        <v>0.3487290946948463</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.972209539652823</v>
+        <v>3.597212394241893</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3137904696593523</v>
+        <v>0.1035493023219942</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1443865558866122</v>
+        <v>0.1776044774058789</v>
       </c>
       <c r="E25">
-        <v>0.0953854509914791</v>
+        <v>0.1554295527795162</v>
       </c>
       <c r="F25">
-        <v>0.8091929269235507</v>
+        <v>1.487139807927058</v>
       </c>
       <c r="G25">
-        <v>0.0008034321870665459</v>
+        <v>0.002464654421666154</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2411313982421475</v>
+        <v>0.5790963900795574</v>
       </c>
       <c r="J25">
-        <v>0.08987867218276335</v>
+        <v>0.1772108020837209</v>
       </c>
       <c r="K25">
-        <v>2.279774673453772</v>
+        <v>0.7732146541736995</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.5973179992581024</v>
+        <v>0.311601913206097</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.858189490024955</v>
+        <v>3.62254077838648</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_215/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_215/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.08750562165990061</v>
+        <v>0.2641166960600572</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1735998771528813</v>
+        <v>0.1261010497255342</v>
       </c>
       <c r="E2">
-        <v>0.1545093483460214</v>
+        <v>0.08697578199598865</v>
       </c>
       <c r="F2">
-        <v>1.492444062395208</v>
+        <v>0.7660838652829298</v>
       </c>
       <c r="G2">
-        <v>0.002468405472996795</v>
+        <v>0.0008092560153994775</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5915225028457844</v>
+        <v>0.2661441145611141</v>
       </c>
       <c r="J2">
-        <v>0.1779213817055343</v>
+        <v>0.08564230020963848</v>
       </c>
       <c r="K2">
-        <v>0.6615644409347112</v>
+        <v>1.915679623772377</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2844807193773704</v>
+        <v>0.5010669898020765</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.648149885222466</v>
+        <v>1.790710770241361</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.07660246508839919</v>
+        <v>0.2304526325371654</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1710091665664635</v>
+        <v>0.113905991428922</v>
       </c>
       <c r="E3">
-        <v>0.1540234438458796</v>
+        <v>0.08151804136969432</v>
       </c>
       <c r="F3">
-        <v>1.497720545593317</v>
+        <v>0.7402779752535267</v>
       </c>
       <c r="G3">
-        <v>0.002471128877247946</v>
+        <v>0.000813367144914374</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.6005887154299057</v>
+        <v>0.2844123256604387</v>
       </c>
       <c r="J3">
-        <v>0.1785819278493221</v>
+        <v>0.08310860029860123</v>
       </c>
       <c r="K3">
-        <v>0.5857526274613178</v>
+        <v>1.669461924976844</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2662373191513439</v>
+        <v>0.4362509312230785</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.669841123677429</v>
+        <v>1.754106767375788</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.06989396031504214</v>
+        <v>0.209767840979012</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1694796270467833</v>
+        <v>0.106504591562242</v>
       </c>
       <c r="E4">
-        <v>0.1537931766480831</v>
+        <v>0.07827624032264069</v>
       </c>
       <c r="F4">
-        <v>1.501789723700625</v>
+        <v>0.7259820837526121</v>
       </c>
       <c r="G4">
-        <v>0.002472890959814052</v>
+        <v>0.0008159752020921847</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6064735899519835</v>
+        <v>0.2962517523999941</v>
       </c>
       <c r="J4">
-        <v>0.1790758196068722</v>
+        <v>0.08170701351228971</v>
       </c>
       <c r="K4">
-        <v>0.5391368886814973</v>
+        <v>1.518389408819758</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2551044755012057</v>
+        <v>0.3966076590277794</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.685296547345203</v>
+        <v>1.73578221469927</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.06715689037180539</v>
+        <v>0.201332919386644</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1688717832744118</v>
+        <v>0.1035087226678471</v>
       </c>
       <c r="E5">
-        <v>0.1537164904591606</v>
+        <v>0.07698129228151274</v>
       </c>
       <c r="F5">
-        <v>1.503656530966374</v>
+        <v>0.7205273673574908</v>
       </c>
       <c r="G5">
-        <v>0.002473631696406371</v>
+        <v>0.0008170594647844071</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.608951727727773</v>
+        <v>0.301229117899898</v>
       </c>
       <c r="J5">
-        <v>0.1792993007679016</v>
+        <v>0.08117289437379682</v>
       </c>
       <c r="K5">
-        <v>0.5201248476128058</v>
+        <v>1.45683209917425</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2505852932414427</v>
+        <v>0.3804847097488562</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.692131925044833</v>
+        <v>1.729309264815683</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0667022086343394</v>
+        <v>0.1999319081983515</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1687717869932897</v>
+        <v>0.1030124432272288</v>
       </c>
       <c r="E6">
-        <v>0.153704793458779</v>
+        <v>0.07676780560182195</v>
       </c>
       <c r="F6">
-        <v>1.503979111634592</v>
+        <v>0.7196434971441548</v>
       </c>
       <c r="G6">
-        <v>0.00247375606649558</v>
+        <v>0.0008172408126572379</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.60936805246482</v>
+        <v>0.3020647183409531</v>
       </c>
       <c r="J6">
-        <v>0.1793377517196362</v>
+        <v>0.08108639279848262</v>
       </c>
       <c r="K6">
-        <v>0.5169669937786523</v>
+        <v>1.446610334444358</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2498359539994297</v>
+        <v>0.3778092501279673</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.69329937270237</v>
+        <v>1.728293106632009</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0698570603257167</v>
+        <v>0.2096541102459071</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1694713667719867</v>
+        <v>0.1064641080721529</v>
       </c>
       <c r="E7">
-        <v>0.1537920729529638</v>
+        <v>0.07825867222916827</v>
       </c>
       <c r="F7">
-        <v>1.501814055534595</v>
+        <v>0.7259070413061082</v>
       </c>
       <c r="G7">
-        <v>0.002472900857655484</v>
+        <v>0.0008159897375075618</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6065066870608917</v>
+        <v>0.2963182655999921</v>
       </c>
       <c r="J7">
-        <v>0.1790787435870307</v>
+        <v>0.08169966243097093</v>
       </c>
       <c r="K7">
-        <v>0.5388805479607299</v>
+        <v>1.517559227700559</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2550434568403261</v>
+        <v>0.3963900983162816</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.685386556912263</v>
+        <v>1.735690954966117</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08374921996278317</v>
+        <v>0.2525112018624327</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1726939487032695</v>
+        <v>0.1218773467389269</v>
       </c>
       <c r="E8">
-        <v>0.1543276960869129</v>
+        <v>0.08507042874533255</v>
       </c>
       <c r="F8">
-        <v>1.494091265418888</v>
+        <v>0.7568530370285131</v>
       </c>
       <c r="G8">
-        <v>0.002469325884413756</v>
+        <v>0.0008106563757784578</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.5945824912421003</v>
+        <v>0.2723113806373698</v>
       </c>
       <c r="J8">
-        <v>0.1781308136606654</v>
+        <v>0.08473563477949853</v>
       </c>
       <c r="K8">
-        <v>0.6354390603684408</v>
+        <v>1.830748777991147</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.278176297993582</v>
+        <v>0.4786822469207195</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.655185396293575</v>
+        <v>1.777197877691634</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1108737213141637</v>
+        <v>0.3365336337815279</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1794959217301653</v>
+        <v>0.1528599673812181</v>
       </c>
       <c r="E9">
-        <v>0.1559171271519055</v>
+        <v>0.09936100217593946</v>
       </c>
       <c r="F9">
-        <v>1.485528025431734</v>
+        <v>0.8307161126058844</v>
       </c>
       <c r="G9">
-        <v>0.002463025624448824</v>
+        <v>0.0008008442577798642</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5737237704711289</v>
+        <v>0.2303558248138642</v>
       </c>
       <c r="J9">
-        <v>0.1769723915937931</v>
+        <v>0.09199399881681103</v>
       </c>
       <c r="K9">
-        <v>0.8242198151533273</v>
+        <v>2.446785532037723</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3240751160357078</v>
+        <v>0.6416105944834882</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.612926910411801</v>
+        <v>1.893877304206626</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1307220213705591</v>
+        <v>0.3984043490064124</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1847843432112768</v>
+        <v>0.1761924434803888</v>
       </c>
       <c r="E10">
-        <v>0.157412350861005</v>
+        <v>0.1105266337838593</v>
       </c>
       <c r="F10">
-        <v>1.483251013175192</v>
+        <v>0.8943313507613766</v>
       </c>
       <c r="G10">
-        <v>0.002458825503840918</v>
+        <v>0.0007940022965417548</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5599373846685278</v>
+        <v>0.2029159734244406</v>
       </c>
       <c r="J10">
-        <v>0.17654816402937</v>
+        <v>0.09824353076038506</v>
       </c>
       <c r="K10">
-        <v>0.9625310382385237</v>
+        <v>2.90210991258391</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3581141133362138</v>
+        <v>0.7627646930841507</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.592240408156187</v>
+        <v>2.00459464308372</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1397325443067388</v>
+        <v>0.4266178125873381</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1872527532507462</v>
+        <v>0.1869564291735912</v>
       </c>
       <c r="E11">
-        <v>0.1581634478461886</v>
+        <v>0.1157741165364712</v>
       </c>
       <c r="F11">
-        <v>1.483087484751707</v>
+        <v>0.9256151238332535</v>
       </c>
       <c r="G11">
-        <v>0.002457006927427868</v>
+        <v>0.0007909629995533123</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.553999549908756</v>
+        <v>0.1912295168304179</v>
       </c>
       <c r="J11">
-        <v>0.1764478434616237</v>
+        <v>0.1013145869462093</v>
       </c>
       <c r="K11">
-        <v>1.025361342088274</v>
+        <v>3.110223396864882</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3736664675152923</v>
+        <v>0.8183172940726706</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.585083462719979</v>
+        <v>2.061222013752968</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.14314174896829</v>
+        <v>0.4373144730855358</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1881964231758246</v>
+        <v>0.1910562906117548</v>
       </c>
       <c r="E12">
-        <v>0.1584580405690232</v>
+        <v>0.1177874484478636</v>
       </c>
       <c r="F12">
-        <v>1.483151016288417</v>
+        <v>0.9378268142362032</v>
       </c>
       <c r="G12">
-        <v>0.002456331451461432</v>
+        <v>0.000789822054822729</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5517990342603896</v>
+        <v>0.1869241832659143</v>
       </c>
       <c r="J12">
-        <v>0.1764231748524736</v>
+        <v>0.1025129052754039</v>
       </c>
       <c r="K12">
-        <v>1.049139956254862</v>
+        <v>3.189205919458686</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3795652711904651</v>
+        <v>0.8394274764573098</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.582697645872486</v>
+        <v>2.08364062952657</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1424076474561673</v>
+        <v>0.4350101343769808</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.187992790736061</v>
+        <v>0.1901722177844647</v>
       </c>
       <c r="E13">
-        <v>0.1583941429582083</v>
+        <v>0.1173526410412862</v>
       </c>
       <c r="F13">
-        <v>1.483131753605875</v>
+        <v>0.9351800973695674</v>
       </c>
       <c r="G13">
-        <v>0.002456476342070912</v>
+        <v>0.0007900673433458572</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.5522708187279868</v>
+        <v>0.187845980592781</v>
       </c>
       <c r="J13">
-        <v>0.1764278953072917</v>
+        <v>0.1022532096484525</v>
       </c>
       <c r="K13">
-        <v>1.044019441323144</v>
+        <v>3.17218730729968</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3782944419571166</v>
+        <v>0.8348775708859435</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.583197042998989</v>
+        <v>2.078767764633312</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1400130806685809</v>
+        <v>0.4274975579032088</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1873302108796935</v>
+        <v>0.1872932375293885</v>
       </c>
       <c r="E14">
-        <v>0.1581874805361956</v>
+        <v>0.1159392167947928</v>
       </c>
       <c r="F14">
-        <v>1.483090197081253</v>
+        <v>0.9266122998698165</v>
       </c>
       <c r="G14">
-        <v>0.0024569510918849</v>
+        <v>0.0007908689367625111</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5538175497070501</v>
+        <v>0.1908728746467272</v>
       </c>
       <c r="J14">
-        <v>0.176445547018929</v>
+        <v>0.1014124489234618</v>
       </c>
       <c r="K14">
-        <v>1.027317907467591</v>
+        <v>3.116717641740109</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3741515776216957</v>
+        <v>0.8200525030338284</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.584880677584124</v>
+        <v>2.063046417530586</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.138545957326329</v>
+        <v>0.4228976530794739</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1869255231206637</v>
+        <v>0.1855329434629027</v>
       </c>
       <c r="E15">
-        <v>0.1580622172410848</v>
+        <v>0.1150769317850013</v>
       </c>
       <c r="F15">
-        <v>1.483081081228562</v>
+        <v>0.9214127035701836</v>
       </c>
       <c r="G15">
-        <v>0.002457243604257208</v>
+        <v>0.0007913612175602935</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5547712208669209</v>
+        <v>0.1927427440644283</v>
       </c>
       <c r="J15">
-        <v>0.176458093814972</v>
+        <v>0.1009021452530092</v>
       </c>
       <c r="K15">
-        <v>1.017085896043454</v>
+        <v>3.082764613699425</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3716151775500691</v>
+        <v>0.8109816335561959</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.585954203505196</v>
+        <v>2.053545931075774</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1301327704832289</v>
+        <v>0.396562158614671</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1846242815370118</v>
+        <v>0.1754921943178402</v>
       </c>
       <c r="E16">
-        <v>0.1573646894061156</v>
+        <v>0.1101872538045647</v>
       </c>
       <c r="F16">
-        <v>1.483279254781834</v>
+        <v>0.8923364159301457</v>
       </c>
       <c r="G16">
-        <v>0.002458946199792991</v>
+        <v>0.0007942023476622657</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5603321531009335</v>
+        <v>0.2036962005699983</v>
       </c>
       <c r="J16">
-        <v>0.1765565844686492</v>
+        <v>0.09804763606451417</v>
       </c>
       <c r="K16">
-        <v>0.9584230549853316</v>
+        <v>2.888531766172861</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3570990706902819</v>
+        <v>0.7591439119653103</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.59275350388404</v>
+        <v>2.001026165950378</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1249666439389046</v>
+        <v>0.380425732480802</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1832285436870933</v>
+        <v>0.1693724460773751</v>
       </c>
       <c r="E17">
-        <v>0.1569549207197163</v>
+        <v>0.1072320768070725</v>
       </c>
       <c r="F17">
-        <v>1.483624258925929</v>
+        <v>0.8751189321805697</v>
       </c>
       <c r="G17">
-        <v>0.002460014226705426</v>
+        <v>0.000795963645299416</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.563829087227258</v>
+        <v>0.2106235594415451</v>
       </c>
       <c r="J17">
-        <v>0.1766407354695119</v>
+        <v>0.09635668634550854</v>
       </c>
       <c r="K17">
-        <v>0.9224118792510296</v>
+        <v>2.769650879266806</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3482110782036756</v>
+        <v>0.7274627965738603</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.597502044569922</v>
+        <v>1.970462121036547</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1219934896173527</v>
+        <v>0.371150708427507</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1824316565665924</v>
+        <v>0.165866498757623</v>
       </c>
       <c r="E18">
-        <v>0.1567259089077382</v>
+        <v>0.1055480368081909</v>
       </c>
       <c r="F18">
-        <v>1.483904799563675</v>
+        <v>0.8654348082365999</v>
       </c>
       <c r="G18">
-        <v>0.002460637198391994</v>
+        <v>0.0007969836166849543</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5658718350033451</v>
+        <v>0.2146825675415984</v>
       </c>
       <c r="J18">
-        <v>0.1766978590005408</v>
+        <v>0.09540540323719426</v>
       </c>
       <c r="K18">
-        <v>0.901690975080669</v>
+        <v>2.701364243220752</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3431053431035807</v>
+        <v>0.7092813020195479</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.60044536570183</v>
+        <v>1.953467067233646</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1209865392268341</v>
+        <v>0.3680113243969458</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1821628607026895</v>
+        <v>0.1646817796605404</v>
       </c>
       <c r="E19">
-        <v>0.156649516972017</v>
+        <v>0.1049804863822885</v>
       </c>
       <c r="F19">
-        <v>1.484013886489564</v>
+        <v>0.8621927089178882</v>
       </c>
       <c r="G19">
-        <v>0.002460849616918455</v>
+        <v>0.0007973301660852938</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5665688669153064</v>
+        <v>0.2160695211940764</v>
       </c>
       <c r="J19">
-        <v>0.1767186982021514</v>
+        <v>0.09508689906772361</v>
       </c>
       <c r="K19">
-        <v>0.8946738557930587</v>
+        <v>2.678258145178916</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3413777375534792</v>
+        <v>0.7031320346855239</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.601478339905071</v>
+        <v>1.947811049499904</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1255167680511988</v>
+        <v>0.3821428174312729</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1833765118403363</v>
+        <v>0.1700224423397145</v>
       </c>
       <c r="E20">
-        <v>0.1569978505306544</v>
+        <v>0.1075450212667768</v>
       </c>
       <c r="F20">
-        <v>1.483579035097634</v>
+        <v>0.8769289091722214</v>
       </c>
       <c r="G20">
-        <v>0.002459899636422917</v>
+        <v>0.0007957754398335357</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5634535822075963</v>
+        <v>0.2098783726327142</v>
       </c>
       <c r="J20">
-        <v>0.176630874777679</v>
+        <v>0.09653446763349649</v>
       </c>
       <c r="K20">
-        <v>0.9262461905550765</v>
+        <v>2.782296355409045</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3491565595925934</v>
+        <v>0.7308310253683032</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.596974601861604</v>
+        <v>1.973654691009301</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1407165029784352</v>
+        <v>0.4297038101284159</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.187524584718048</v>
+        <v>0.1881382001667333</v>
       </c>
       <c r="E21">
-        <v>0.1582479065535374</v>
+        <v>0.1163536450677043</v>
       </c>
       <c r="F21">
-        <v>1.483098998228755</v>
+        <v>0.9291187245893155</v>
       </c>
       <c r="G21">
-        <v>0.002456811289019769</v>
+        <v>0.0007906332232738371</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.553361933984251</v>
+        <v>0.1899804973273138</v>
       </c>
       <c r="J21">
-        <v>0.1764400007996443</v>
+        <v>0.101658419198337</v>
       </c>
       <c r="K21">
-        <v>1.032223938300319</v>
+        <v>3.133005416312983</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3753681827483391</v>
+        <v>0.8244048991429977</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.58437734762947</v>
+        <v>2.067637072615327</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1506334946015926</v>
+        <v>0.4608640455766277</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1902876440453127</v>
+        <v>0.2001176105977862</v>
       </c>
       <c r="E22">
-        <v>0.1591241475567138</v>
+        <v>0.1222644967913915</v>
       </c>
       <c r="F22">
-        <v>1.483516530587792</v>
+        <v>0.9653710003986049</v>
       </c>
       <c r="G22">
-        <v>0.002454869667994658</v>
+        <v>0.0007873303257665488</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.5470463337311076</v>
+        <v>0.1776788269794873</v>
       </c>
       <c r="J22">
-        <v>0.1763928943998323</v>
+        <v>0.1052147472769107</v>
       </c>
       <c r="K22">
-        <v>1.101405202334661</v>
+        <v>3.363248226588041</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3925540266959544</v>
+        <v>0.8859954111156014</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.578035097709886</v>
+        <v>2.134782145831139</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1453422278120797</v>
+        <v>0.4442251921082629</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1888082096732404</v>
+        <v>0.1937104159715091</v>
       </c>
       <c r="E23">
-        <v>0.1586510686274352</v>
+        <v>0.1190949691556042</v>
       </c>
       <c r="F23">
-        <v>1.483226768140852</v>
+        <v>0.945816568949013</v>
       </c>
       <c r="G23">
-        <v>0.002455898941378784</v>
+        <v>0.0007890880426487724</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5503914687031619</v>
+        <v>0.1841782148984148</v>
       </c>
       <c r="J23">
-        <v>0.1764109332163599</v>
+        <v>0.1032967793752491</v>
       </c>
       <c r="K23">
-        <v>1.064489689043398</v>
+        <v>3.240257081221785</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3833766787639803</v>
+        <v>0.8530799470626107</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.581246963548011</v>
+        <v>2.098395826365703</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.125268066516071</v>
+        <v>0.3813665172525589</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1833095981730253</v>
+        <v>0.1697285406420264</v>
       </c>
       <c r="E24">
-        <v>0.1569784214975627</v>
+        <v>0.1074034927235346</v>
       </c>
       <c r="F24">
-        <v>1.483599224763722</v>
+        <v>0.8761099527451393</v>
       </c>
       <c r="G24">
-        <v>0.002459951415046644</v>
+        <v>0.0007958605045062525</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5636232473743448</v>
+        <v>0.2102150341104863</v>
       </c>
       <c r="J24">
-        <v>0.1766353055593868</v>
+        <v>0.09645402791147717</v>
       </c>
       <c r="K24">
-        <v>0.9245127531475532</v>
+        <v>2.776579152557588</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3487290946948463</v>
+        <v>0.7293081489926081</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.597212394241893</v>
+        <v>1.972209539652766</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1035493023219942</v>
+        <v>0.3137904696593523</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1776044774058789</v>
+        <v>0.1443865558866548</v>
       </c>
       <c r="E25">
-        <v>0.1554295527795162</v>
+        <v>0.09538545099150753</v>
       </c>
       <c r="F25">
-        <v>1.487139807927058</v>
+        <v>0.8091929269235365</v>
       </c>
       <c r="G25">
-        <v>0.002464654421666154</v>
+        <v>0.0008034321870716651</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5790963900795574</v>
+        <v>0.2411313982421408</v>
       </c>
       <c r="J25">
-        <v>0.1772108020837209</v>
+        <v>0.08987867218276335</v>
       </c>
       <c r="K25">
-        <v>0.7732146541736995</v>
+        <v>2.279774673453659</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.311601913206097</v>
+        <v>0.5973179992580953</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.62254077838648</v>
+        <v>1.858189490024984</v>
       </c>
     </row>
   </sheetData>
